--- a/ESTADISTICAS/Glosario Protección y Restitucion de Derechos 2019.xlsx
+++ b/ESTADISTICAS/Glosario Protección y Restitucion de Derechos 2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-SENAME\ESTADISTICAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A4A0CD1-9B5A-49C5-82A1-7E5FC5669A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BDEED9-48DE-4C15-B3D2-2F6BABC94327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{70A56F59-2864-4618-A457-C20F24640C34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{70A56F59-2864-4618-A457-C20F24640C34}"/>
   </bookViews>
   <sheets>
     <sheet name="Glosario" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
   <si>
     <t xml:space="preserve">Concepto </t>
   </si>
@@ -334,13 +334,25 @@
   </si>
   <si>
     <t>Destinada a la evaluación de los niños, niñas y sus familias para determinar la existencia de vulneraciones de derechos y el nivel de estas vulneraciones, en respuesta a solicitudes de tribunales de familia, fiscalía y otras instancias judiciales.</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Línea</t>
+  </si>
+  <si>
+    <t>Registro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,8 +367,16 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +386,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,12 +429,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,419 +757,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986BF0F7-2C9A-49F2-A119-4B462D3E22EF}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.77734375" customWidth="1"/>
-    <col min="2" max="2" width="207" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="207" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
+    <sortCondition ref="A2:A50"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ESTADISTICAS/Glosario Protección y Restitucion de Derechos 2019.xlsx
+++ b/ESTADISTICAS/Glosario Protección y Restitucion de Derechos 2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-SENAME\ESTADISTICAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BDEED9-48DE-4C15-B3D2-2F6BABC94327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E1BF5B-6F40-4230-A832-B0017097A07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{70A56F59-2864-4618-A457-C20F24640C34}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
   <si>
     <t xml:space="preserve">Concepto </t>
   </si>
@@ -42,24 +42,6 @@
     <t>Definición</t>
   </si>
   <si>
-    <t>ATENCIONES</t>
-  </si>
-  <si>
-    <t>INGRESADOS</t>
-  </si>
-  <si>
-    <t>ATENDIDOS</t>
-  </si>
-  <si>
-    <t>ATENDIDOS POR LÍNEA</t>
-  </si>
-  <si>
-    <t>VIGENTES</t>
-  </si>
-  <si>
-    <t>EGRESADOS</t>
-  </si>
-  <si>
     <t>Corresponde  a  la  cantidad  de  proyectos  del área  de  Protección  en  los  que  se  encuentra vigente un niño, niña, adolescente y adulto en un   periodo   de   tiempo   determinado.   Esto implica   que   un   niño,   niña,   adolescente   o adulto  puede  estar  vigente  en  más  de  un proyecto   dentro   del   periodo   comprendido entre  el  1  de  enero  y  31  de  diciembre  de 2019.</t>
   </si>
   <si>
@@ -312,21 +294,9 @@
     <t>Oficina de Protección de Derechos</t>
   </si>
   <si>
-    <t>Linea de atencion Cuidados Alternativos</t>
-  </si>
-  <si>
     <t>Destinados a la atención de niños, niñas y adolescentes separados de su familia de origen por una medida de protección de un tribunal de familia debido a graves vulneraciones de derechos. Se compone de cuidados alternativos residenciales y cuidados alternativos familiares (programas FAE)</t>
   </si>
   <si>
-    <t>Linea de atencion Ambulatorio</t>
-  </si>
-  <si>
-    <t>Linea de atencion Diagnostico</t>
-  </si>
-  <si>
-    <t>Linea de atencion Oficinas de Protección de Derechos (OPD)</t>
-  </si>
-  <si>
     <t>Instancia de atención ambulatoria de carácter local, destinada a la ejecución de acciones que permitan la protección integral de los derechos de los niños, niñas y adolescentes; así como acciones que posibiliten una cultura de reconocimiento y respeto a los derechos de la infancia.</t>
   </si>
   <si>
@@ -346,13 +316,46 @@
   </si>
   <si>
     <t>Registro</t>
+  </si>
+  <si>
+    <t>Abrev</t>
+  </si>
+  <si>
+    <t>Vigentes</t>
+  </si>
+  <si>
+    <t>Atenciones</t>
+  </si>
+  <si>
+    <t>Atendidos</t>
+  </si>
+  <si>
+    <t>Atendidos por Línea</t>
+  </si>
+  <si>
+    <t>Ingresados</t>
+  </si>
+  <si>
+    <t>Egresados</t>
+  </si>
+  <si>
+    <t>Línea Ambulatoria</t>
+  </si>
+  <si>
+    <t>Línea Cuidado Alternativo</t>
+  </si>
+  <si>
+    <t>Línea Diagnóstico</t>
+  </si>
+  <si>
+    <t>Línea Oficina Protección Derechos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,12 +371,23 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
-      <color theme="0"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -391,18 +405,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -425,29 +439,289 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -458,6 +732,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B7A994A-E0D0-401C-9262-3808026DD990}" name="Glosario_Prot_Rest_Derechos" displayName="Glosario_Prot_Rest_Derechos" ref="A1:C50" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:C50" xr:uid="{94C39E2F-6427-4DB8-98A4-6402B504C4C8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6E37D29F-2582-40F4-9E98-B2A1ACA045BB}" name="Concepto " dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DC719ED8-40ED-4E5A-97E2-A25D7839ED1F}" name="Categoría" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2D6139AF-D189-4A2B-B655-B68796B98E9D}" name="Definición" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,501 +1045,563 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986BF0F7-2C9A-49F2-A119-4B462D3E22EF}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="3" width="207" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>93</v>
+      <c r="C15" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>99</v>
+      <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1261,5 +1609,8 @@
     <sortCondition ref="A2:A50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>